--- a/Jiyoung/queries/2017-07-21/2017-07-21_주문내역.xlsx
+++ b/Jiyoung/queries/2017-07-21/2017-07-21_주문내역.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Table1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Table1!$A$1:$K$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Table1!$A$1:$K$110</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -546,6 +546,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,8 +566,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -858,12 +858,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -1017,27 +1017,27 @@
     </row>
     <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1058,8 +1058,8 @@
   </sheetPr>
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1077,19 +1077,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1154,7 +1154,7 @@
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="37">
         <v>4</v>
       </c>
       <c r="D4" s="20">
@@ -1169,7 +1169,7 @@
       <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="37">
         <v>1</v>
       </c>
       <c r="J4" s="20">
@@ -1186,7 +1186,7 @@
       <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="37">
         <v>4</v>
       </c>
       <c r="D5" s="20">
@@ -1201,7 +1201,7 @@
       <c r="H5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="37">
         <v>1</v>
       </c>
       <c r="J5" s="20">
@@ -1218,7 +1218,7 @@
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="37">
         <v>4</v>
       </c>
       <c r="D6" s="20">
@@ -1233,7 +1233,7 @@
       <c r="H6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="37">
         <v>3</v>
       </c>
       <c r="J6" s="20">
@@ -1250,7 +1250,7 @@
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="37">
         <v>4</v>
       </c>
       <c r="D7" s="20">
@@ -1265,7 +1265,7 @@
       <c r="H7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="37">
         <v>8</v>
       </c>
       <c r="J7" s="20">
@@ -1282,7 +1282,7 @@
       <c r="B8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="38">
         <v>4</v>
       </c>
       <c r="D8" s="34">
@@ -1297,7 +1297,7 @@
       <c r="H8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="37">
         <v>4</v>
       </c>
       <c r="J8" s="20">
@@ -1321,7 +1321,7 @@
       <c r="H9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="37">
         <v>8</v>
       </c>
       <c r="J9" s="20">
@@ -1338,7 +1338,7 @@
       <c r="H10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="38">
         <v>4</v>
       </c>
       <c r="J10" s="34">
@@ -1426,7 +1426,7 @@
       <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="37">
         <v>2</v>
       </c>
       <c r="D17" s="20">
@@ -1441,7 +1441,7 @@
       <c r="H17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="37">
         <v>5</v>
       </c>
       <c r="J17" s="20">
@@ -1458,7 +1458,7 @@
       <c r="B18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="37">
         <v>2</v>
       </c>
       <c r="D18" s="20">
@@ -1473,7 +1473,7 @@
       <c r="H18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="37">
         <v>10</v>
       </c>
       <c r="J18" s="20">
@@ -1490,7 +1490,7 @@
       <c r="B19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="37">
         <v>2</v>
       </c>
       <c r="D19" s="20">
@@ -1505,7 +1505,7 @@
       <c r="H19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="37">
         <v>10</v>
       </c>
       <c r="J19" s="20">
@@ -1522,7 +1522,7 @@
       <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="37">
         <v>2</v>
       </c>
       <c r="D20" s="20">
@@ -1537,7 +1537,7 @@
       <c r="H20" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="38">
         <v>5</v>
       </c>
       <c r="J20" s="34">
@@ -1554,7 +1554,7 @@
       <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="37">
         <v>2</v>
       </c>
       <c r="D21" s="20">
@@ -1578,7 +1578,7 @@
       <c r="B22" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="38">
         <v>2</v>
       </c>
       <c r="D22" s="34">
@@ -1661,7 +1661,7 @@
       <c r="B29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="37">
         <v>2</v>
       </c>
       <c r="D29" s="20">
@@ -1676,7 +1676,7 @@
       <c r="H29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="37">
         <v>1</v>
       </c>
       <c r="J29" s="20">
@@ -1693,7 +1693,7 @@
       <c r="B30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="37">
         <v>1</v>
       </c>
       <c r="D30" s="20">
@@ -1708,7 +1708,7 @@
       <c r="H30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="37">
         <v>2</v>
       </c>
       <c r="J30" s="20">
@@ -1725,7 +1725,7 @@
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="37">
         <v>2</v>
       </c>
       <c r="D31" s="20">
@@ -1740,7 +1740,7 @@
       <c r="H31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="37">
         <v>6</v>
       </c>
       <c r="J31" s="20">
@@ -1757,7 +1757,7 @@
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="37">
         <v>1</v>
       </c>
       <c r="D32" s="20">
@@ -1772,7 +1772,7 @@
       <c r="H32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="37">
         <v>6</v>
       </c>
       <c r="J32" s="20">
@@ -1789,7 +1789,7 @@
       <c r="B33" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="38">
         <v>2</v>
       </c>
       <c r="D33" s="34">
@@ -1804,7 +1804,7 @@
       <c r="H33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="37">
         <v>4</v>
       </c>
       <c r="J33" s="20">
@@ -1828,7 +1828,7 @@
       <c r="H34" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="38">
         <v>10</v>
       </c>
       <c r="J34" s="34">
@@ -1911,7 +1911,7 @@
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="37">
         <v>20</v>
       </c>
       <c r="D41" s="20">
@@ -1926,7 +1926,7 @@
       <c r="H41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="43">
+      <c r="I41" s="37">
         <v>2</v>
       </c>
       <c r="J41" s="20">
@@ -1943,7 +1943,7 @@
       <c r="B42" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="37">
         <v>4</v>
       </c>
       <c r="D42" s="20">
@@ -1958,7 +1958,7 @@
       <c r="H42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="43">
+      <c r="I42" s="37">
         <v>2</v>
       </c>
       <c r="J42" s="20">
@@ -1975,7 +1975,7 @@
       <c r="B43" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="37">
         <v>6</v>
       </c>
       <c r="D43" s="20">
@@ -1990,7 +1990,7 @@
       <c r="H43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43">
+      <c r="I43" s="37">
         <v>2</v>
       </c>
       <c r="J43" s="20">
@@ -2007,7 +2007,7 @@
       <c r="B44" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="38">
         <v>2</v>
       </c>
       <c r="D44" s="34">
@@ -2022,7 +2022,7 @@
       <c r="H44" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="43">
+      <c r="I44" s="37">
         <v>5</v>
       </c>
       <c r="J44" s="20">
@@ -2046,7 +2046,7 @@
       <c r="H45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="43">
+      <c r="I45" s="37">
         <v>2</v>
       </c>
       <c r="J45" s="20">
@@ -2063,7 +2063,7 @@
       <c r="H46" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I46" s="37">
         <v>2</v>
       </c>
       <c r="J46" s="20">
@@ -2080,7 +2080,7 @@
       <c r="H47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="43">
+      <c r="I47" s="37">
         <v>2</v>
       </c>
       <c r="J47" s="20">
@@ -2097,7 +2097,7 @@
       <c r="H48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I48" s="43">
+      <c r="I48" s="37">
         <v>2</v>
       </c>
       <c r="J48" s="20">
@@ -2114,7 +2114,7 @@
       <c r="H49" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="44">
+      <c r="I49" s="38">
         <v>5</v>
       </c>
       <c r="J49" s="34">
@@ -2197,7 +2197,7 @@
       <c r="B59" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="43">
+      <c r="C59" s="37">
         <v>6</v>
       </c>
       <c r="D59" s="20">
@@ -2212,7 +2212,7 @@
       <c r="H59" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I59" s="43">
+      <c r="I59" s="37">
         <v>2</v>
       </c>
       <c r="J59" s="20">
@@ -2229,7 +2229,7 @@
       <c r="B60" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="43">
+      <c r="C60" s="37">
         <v>4</v>
       </c>
       <c r="D60" s="20">
@@ -2244,7 +2244,7 @@
       <c r="H60" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="43">
+      <c r="I60" s="37">
         <v>2</v>
       </c>
       <c r="J60" s="20">
@@ -2261,7 +2261,7 @@
       <c r="B61" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="43">
+      <c r="C61" s="37">
         <v>2</v>
       </c>
       <c r="D61" s="20">
@@ -2276,7 +2276,7 @@
       <c r="H61" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I61" s="43">
+      <c r="I61" s="37">
         <v>1</v>
       </c>
       <c r="J61" s="20">
@@ -2293,7 +2293,7 @@
       <c r="B62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="43">
+      <c r="C62" s="37">
         <v>3</v>
       </c>
       <c r="D62" s="20">
@@ -2308,7 +2308,7 @@
       <c r="H62" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="43">
+      <c r="I62" s="37">
         <v>2</v>
       </c>
       <c r="J62" s="20">
@@ -2325,7 +2325,7 @@
       <c r="B63" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="43">
+      <c r="C63" s="37">
         <v>4</v>
       </c>
       <c r="D63" s="20">
@@ -2340,7 +2340,7 @@
       <c r="H63" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="44">
+      <c r="I63" s="38">
         <v>2</v>
       </c>
       <c r="J63" s="34">
@@ -2357,7 +2357,7 @@
       <c r="B64" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="44">
+      <c r="C64" s="38">
         <v>2</v>
       </c>
       <c r="D64" s="34">
@@ -2450,7 +2450,7 @@
       <c r="B70" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="37">
         <v>1</v>
       </c>
       <c r="D70" s="20">
@@ -2465,7 +2465,7 @@
       <c r="H70" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I70" s="44">
+      <c r="I70" s="38">
         <v>10</v>
       </c>
       <c r="J70" s="34">
@@ -2482,7 +2482,7 @@
       <c r="B71" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="37">
         <v>3</v>
       </c>
       <c r="D71" s="20">
@@ -2506,7 +2506,7 @@
       <c r="B72" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="43">
+      <c r="C72" s="37">
         <v>6</v>
       </c>
       <c r="D72" s="20">
@@ -2523,7 +2523,7 @@
       <c r="B73" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="43">
+      <c r="C73" s="37">
         <v>4</v>
       </c>
       <c r="D73" s="20">
@@ -2540,7 +2540,7 @@
       <c r="B74" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="43">
+      <c r="C74" s="37">
         <v>2</v>
       </c>
       <c r="D74" s="20">
@@ -2557,7 +2557,7 @@
       <c r="B75" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="43">
+      <c r="C75" s="37">
         <v>2</v>
       </c>
       <c r="D75" s="20">
@@ -2574,7 +2574,7 @@
       <c r="B76" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="44">
+      <c r="C76" s="38">
         <v>2</v>
       </c>
       <c r="D76" s="34">
@@ -2631,7 +2631,7 @@
       <c r="B83" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="43">
+      <c r="C83" s="37">
         <v>10</v>
       </c>
       <c r="D83" s="20">
@@ -2648,7 +2648,7 @@
       <c r="B84" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="43">
+      <c r="C84" s="37">
         <v>2</v>
       </c>
       <c r="D84" s="20">
@@ -2665,7 +2665,7 @@
       <c r="B85" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="43">
+      <c r="C85" s="37">
         <v>7</v>
       </c>
       <c r="D85" s="20">
@@ -2682,7 +2682,7 @@
       <c r="B86" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="43">
+      <c r="C86" s="37">
         <v>5</v>
       </c>
       <c r="D86" s="20">
@@ -2699,7 +2699,7 @@
       <c r="B87" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="44">
+      <c r="C87" s="38">
         <v>10</v>
       </c>
       <c r="D87" s="34">
@@ -2782,7 +2782,7 @@
       <c r="B95" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="43">
+      <c r="C95" s="37">
         <v>2</v>
       </c>
       <c r="D95" s="20">
@@ -2797,7 +2797,7 @@
       <c r="H95" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I95" s="43">
+      <c r="I95" s="37">
         <v>6</v>
       </c>
       <c r="J95" s="20">
@@ -2814,7 +2814,7 @@
       <c r="B96" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="43">
+      <c r="C96" s="37">
         <v>4</v>
       </c>
       <c r="D96" s="20">
@@ -2829,7 +2829,7 @@
       <c r="H96" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I96" s="43">
+      <c r="I96" s="37">
         <v>12</v>
       </c>
       <c r="J96" s="20">
@@ -2846,7 +2846,7 @@
       <c r="B97" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="44">
+      <c r="C97" s="38">
         <v>2</v>
       </c>
       <c r="D97" s="34">
@@ -2861,7 +2861,7 @@
       <c r="H97" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I97" s="43">
+      <c r="I97" s="37">
         <v>8</v>
       </c>
       <c r="J97" s="20">
@@ -2882,7 +2882,7 @@
       <c r="H98" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I98" s="43">
+      <c r="I98" s="37">
         <v>10</v>
       </c>
       <c r="J98" s="20">
@@ -2899,7 +2899,7 @@
       <c r="H99" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I99" s="44">
+      <c r="I99" s="38">
         <v>6</v>
       </c>
       <c r="J99" s="34">
@@ -2979,7 +2979,7 @@
       <c r="B105" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="43">
+      <c r="C105" s="37">
         <v>3</v>
       </c>
       <c r="D105" s="20">
@@ -2994,7 +2994,7 @@
       <c r="H105" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I105" s="43">
+      <c r="I105" s="37">
         <v>2</v>
       </c>
       <c r="J105" s="20">
@@ -3011,7 +3011,7 @@
       <c r="B106" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="43">
+      <c r="C106" s="37">
         <v>6</v>
       </c>
       <c r="D106" s="20">
@@ -3026,7 +3026,7 @@
       <c r="H106" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I106" s="43">
+      <c r="I106" s="37">
         <v>6</v>
       </c>
       <c r="J106" s="20">
@@ -3043,7 +3043,7 @@
       <c r="B107" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="43">
+      <c r="C107" s="37">
         <v>6</v>
       </c>
       <c r="D107" s="20">
@@ -3058,7 +3058,7 @@
       <c r="H107" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I107" s="43">
+      <c r="I107" s="37">
         <v>2</v>
       </c>
       <c r="J107" s="20">
@@ -3075,7 +3075,7 @@
       <c r="B108" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C108" s="43">
+      <c r="C108" s="37">
         <v>4</v>
       </c>
       <c r="D108" s="20">
@@ -3090,7 +3090,7 @@
       <c r="H108" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="43">
+      <c r="I108" s="37">
         <v>2</v>
       </c>
       <c r="J108" s="20">
@@ -3107,7 +3107,7 @@
       <c r="B109" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="44">
+      <c r="C109" s="38">
         <v>6</v>
       </c>
       <c r="D109" s="34">
@@ -3122,7 +3122,7 @@
       <c r="H109" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I109" s="44">
+      <c r="I109" s="38">
         <v>4</v>
       </c>
       <c r="J109" s="34">
@@ -3149,8 +3149,12 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="37" max="10" man="1"/>
+    <brk id="91" max="10" man="1"/>
+  </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="3" max="169" man="1"/>
+    <brk id="3" max="109" man="1"/>
   </colBreaks>
 </worksheet>
 </file>